--- a/autosys_jobs.xlsx
+++ b/autosys_jobs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
   <si>
     <t>Job Name</t>
   </si>
@@ -26,28 +26,160 @@
     <t>Command</t>
   </si>
   <si>
+    <t>Datapath Feed ID</t>
+  </si>
+  <si>
     <t>Machine</t>
   </si>
   <si>
     <t>Owner</t>
   </si>
   <si>
+    <t>Permission</t>
+  </si>
+  <si>
     <t>Date Conditions</t>
   </si>
   <si>
+    <t>Run Calendar</t>
+  </si>
+  <si>
+    <t>Exclude Calendar</t>
+  </si>
+  <si>
+    <t>Days of the Week</t>
+  </si>
+  <si>
+    <t>Start Times</t>
+  </si>
+  <si>
+    <t>Start Mins</t>
+  </si>
+  <si>
+    <t>Run Window</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>N Retrys</t>
+  </si>
+  <si>
+    <t>Term Run Time</t>
+  </si>
+  <si>
+    <t>Box Terminator</t>
+  </si>
+  <si>
+    <t>Out File</t>
+  </si>
+  <si>
+    <t>Error File</t>
+  </si>
+  <si>
+    <t>Max Run Alarm</t>
+  </si>
+  <si>
+    <t>Alarm If Fail</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Alarm If Terminated</t>
+  </si>
+  <si>
+    <t>Timezone</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Send Notification</t>
+  </si>
+  <si>
+    <t>Notification Message</t>
+  </si>
+  <si>
+    <t>Envvars</t>
+  </si>
+  <si>
+    <t>Watch File</t>
+  </si>
+  <si>
+    <t>Watch Interval</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
     <t>Sample_Box_Job</t>
   </si>
   <si>
     <t>BOX</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>server01.company.com</t>
   </si>
   <si>
     <t>becca@example.com</t>
   </si>
   <si>
-    <t>false</t>
+    <t>gx,ge</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Workdays</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>mo,tu,we,th,fr</t>
+  </si>
+  <si>
+    <t>"09:00,14:00"</t>
+  </si>
+  <si>
+    <t>s(Preceding_Job)</t>
+  </si>
+  <si>
+    <t>"A full-featured sample box job in Autosys"</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>/var/log/autosys/Sample_Box_Job.out</t>
+  </si>
+  <si>
+    <t>/var/log/autosys/Sample_Box_Job.err</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>/etc/profile</t>
+  </si>
+  <si>
+    <t>"EST"</t>
+  </si>
+  <si>
+    <t>/tmp/watchfile.txt</t>
   </si>
   <si>
     <t>Sample_Command_Job</t>
@@ -56,7 +188,97 @@
     <t>CMD</t>
   </si>
   <si>
-    <t>/usr/local/bin/sample_script.sh -param value</t>
+    <t>KeywordOra.exe -f 852</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>"09:05,14:05"</t>
+  </si>
+  <si>
+    <t>s(Another_Job)</t>
+  </si>
+  <si>
+    <t>"This is a child command job under the box job"</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>/var/log/autosys/Sample_Command_Job.out</t>
+  </si>
+  <si>
+    <t>/var/log/autosys/Sample_Command_Job.err</t>
+  </si>
+  <si>
+    <t>/tmp/child_watchfile.txt</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Sample_Full_CMD_Job</t>
+  </si>
+  <si>
+    <t>Keyword.exe -F 454</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>server01.prod.local</t>
+  </si>
+  <si>
+    <t>gx,ge,mx,me</t>
+  </si>
+  <si>
+    <t>HOLIDAY</t>
+  </si>
+  <si>
+    <t>Memorial</t>
+  </si>
+  <si>
+    <t>00,30</t>
+  </si>
+  <si>
+    <t>06:00-18:00</t>
+  </si>
+  <si>
+    <t>s(Dependency_Job_Success)</t>
+  </si>
+  <si>
+    <t>"Comprehensive CMD job for Autosys parser testing"</t>
+  </si>
+  <si>
+    <t>/logs/autosys/Sample_Full_CMD_Job.out</t>
+  </si>
+  <si>
+    <t>/logs/autosys/Sample_Full_CMD_Job.err</t>
+  </si>
+  <si>
+    <t>/home/becca/.bash_profile</t>
+  </si>
+  <si>
+    <t>US/Eastern</t>
+  </si>
+  <si>
+    <t>DATA_ETL</t>
+  </si>
+  <si>
+    <t>SalesProcessing</t>
+  </si>
+  <si>
+    <t>"Job Sample_Full_CMD_Job has completed."</t>
+  </si>
+  <si>
+    <t>"ENV=PROD,REGION=US"</t>
+  </si>
+  <si>
+    <t>becca@example.com; devops@example.com</t>
   </si>
 </sst>
 </file>
@@ -101,11 +323,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.46875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.8828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.7421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.10546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.7578125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.67578125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="15.03125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="12.05859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="9.1875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.25390625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="23.73828125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="43.46875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="7.71484375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="13.14453125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="13.375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="37.11328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="36.734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="23.0078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="17.046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="9.9140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="13.51171875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7890625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="36.765625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="21.46484375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="20.57421875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.76171875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="37.37890625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -129,47 +388,410 @@
       <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
+        <v>36</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>37</v>
+      </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="Z2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AB2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="T3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="V3" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="W3" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="Z3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AA3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AB3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AC3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AD3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AE3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AF3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AG3" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="AH3" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="AI3" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="V4" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="W4" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="Z4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="AB4" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="AC4" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="AD4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="AE4" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="AF4" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="AG4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AH4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AI4" t="s" s="0">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/autosys_jobs.xlsx
+++ b/autosys_jobs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>Job Name</t>
   </si>
@@ -219,66 +219,6 @@
   </si>
   <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>Sample_Full_CMD_Job</t>
-  </si>
-  <si>
-    <t>Keyword.exe -F 454</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>server01.prod.local</t>
-  </si>
-  <si>
-    <t>gx,ge,mx,me</t>
-  </si>
-  <si>
-    <t>HOLIDAY</t>
-  </si>
-  <si>
-    <t>Memorial</t>
-  </si>
-  <si>
-    <t>00,30</t>
-  </si>
-  <si>
-    <t>06:00-18:00</t>
-  </si>
-  <si>
-    <t>s(Dependency_Job_Success)</t>
-  </si>
-  <si>
-    <t>"Comprehensive CMD job for Autosys parser testing"</t>
-  </si>
-  <si>
-    <t>/logs/autosys/Sample_Full_CMD_Job.out</t>
-  </si>
-  <si>
-    <t>/logs/autosys/Sample_Full_CMD_Job.err</t>
-  </si>
-  <si>
-    <t>/home/becca/.bash_profile</t>
-  </si>
-  <si>
-    <t>US/Eastern</t>
-  </si>
-  <si>
-    <t>DATA_ETL</t>
-  </si>
-  <si>
-    <t>SalesProcessing</t>
-  </si>
-  <si>
-    <t>"Job Sample_Full_CMD_Job has completed."</t>
-  </si>
-  <si>
-    <t>"ENV=PROD,REGION=US"</t>
-  </si>
-  <si>
-    <t>becca@example.com; devops@example.com</t>
   </si>
 </sst>
 </file>
@@ -323,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -336,7 +276,7 @@
     <col min="5" max="5" width="14.8828125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="19.7421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="18.10546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="9.72265625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.7578125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.66015625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="14.67578125" customWidth="true" bestFit="true"/>
@@ -344,8 +284,8 @@
     <col min="13" max="13" width="12.05859375" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="9.1875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="11.25390625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="23.73828125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="43.46875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="14.546875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="39.265625" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="7.71484375" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="13.14453125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="13.375" customWidth="true" bestFit="true"/>
@@ -353,17 +293,17 @@
     <col min="22" max="22" width="36.734375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="23.0078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="10.1875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="17.046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="9.9140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="13.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="8.7421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.9765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="10.01953125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7890625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="36.765625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="21.46484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.8984375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="7.1171875" customWidth="true" bestFit="true"/>
     <col min="33" max="33" width="20.57421875" customWidth="true" bestFit="true"/>
     <col min="34" max="34" width="12.76171875" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="37.37890625" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="18.10546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -687,113 +627,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="O4" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="P4" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="Q4" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="R4" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="S4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="U4" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="V4" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="W4" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="X4" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="Y4" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="Z4" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="AB4" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="AC4" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="AD4" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="AE4" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="AF4" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="AG4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="AH4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="AI4" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
